--- a/Sample/item.xlsx
+++ b/Sample/item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2475" yWindow="1575" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="items" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sp2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="items" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sp2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>

--- a/Sample/item.xlsx
+++ b/Sample/item.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
@@ -477,6 +477,13 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>창고열쇠</t>
         </is>
       </c>
     </row>
@@ -492,7 +499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -682,6 +689,7 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
